--- a/data_year/zb/科技/按登记注册类型和行业分大中型工业企业新产品开发及生产情况/按行业分大中型工业企业新产品项目数.xlsx
+++ b/data_year/zb/科技/按登记注册类型和行业分大中型工业企业新产品开发及生产情况/按行业分大中型工业企业新产品项目数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,54 +628,128 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>2010年</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12679</v>
+      </c>
+      <c r="C2" t="n">
+        <v>21277</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4463</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1792</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6952</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1038</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9410</v>
+      </c>
+      <c r="I2" t="n">
+        <v>490</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1726</v>
+      </c>
       <c r="K2" t="n">
-        <v>55953</v>
-      </c>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr"/>
-      <c r="W2" t="inlineStr"/>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
+        <v>159637</v>
+      </c>
+      <c r="L2" t="n">
+        <v>710</v>
+      </c>
+      <c r="M2" t="n">
+        <v>957</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1234</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2564</v>
+      </c>
+      <c r="P2" t="n">
+        <v>76</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>344</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2520</v>
+      </c>
+      <c r="S2" t="n">
+        <v>77</v>
+      </c>
+      <c r="T2" t="n">
+        <v>662</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1853</v>
+      </c>
+      <c r="V2" t="n">
+        <v>67</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1467</v>
+      </c>
+      <c r="X2" t="n">
+        <v>19529</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>633</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>823</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>4861</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>920</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>25850</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>16451</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1186</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3123</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>3026</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>139</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1810</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1502</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>6363</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -688,7 +762,7 @@
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>57418</v>
+        <v>176044</v>
       </c>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
@@ -722,7 +796,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -735,7 +809,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>59788</v>
+        <v>210730</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -769,7 +843,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="inlineStr"/>
@@ -782,7 +856,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>68633</v>
+        <v>222508</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -816,7 +890,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="inlineStr"/>
@@ -829,7 +903,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>46575</v>
+        <v>225206</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -863,7 +937,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="inlineStr"/>
@@ -876,7 +950,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>81033</v>
+        <v>176447</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -910,7 +984,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -923,7 +997,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>100760</v>
+        <v>195747</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -957,7 +1031,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="inlineStr"/>
@@ -970,7 +1044,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>112369</v>
+        <v>222448</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -1004,370 +1078,148 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>8233</v>
-      </c>
-      <c r="C10" t="n">
-        <v>17448</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3439</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1190</v>
-      </c>
-      <c r="F10" t="n">
-        <v>6129</v>
-      </c>
-      <c r="G10" t="n">
-        <v>609</v>
-      </c>
-      <c r="H10" t="n">
-        <v>6695</v>
-      </c>
-      <c r="I10" t="n">
-        <v>445</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1148</v>
-      </c>
+          <t>2018年</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>121358</v>
-      </c>
-      <c r="L10" t="n">
-        <v>259</v>
-      </c>
-      <c r="M10" t="n">
-        <v>840</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1146</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1969</v>
-      </c>
-      <c r="P10" t="n">
-        <v>51</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>271</v>
-      </c>
-      <c r="R10" t="n">
-        <v>2137</v>
-      </c>
-      <c r="S10" t="n">
-        <v>50</v>
-      </c>
-      <c r="T10" t="n">
-        <v>473</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1045</v>
-      </c>
-      <c r="V10" t="n">
-        <v>10</v>
-      </c>
-      <c r="W10" t="n">
-        <v>1280</v>
-      </c>
-      <c r="X10" t="n">
-        <v>14534</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>836</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>618</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>876</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>4523</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>938</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>19464</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>12414</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>617</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>2184</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>2491</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>142</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>1536</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1413</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>3826</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>79</v>
-      </c>
+        <v>233296</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>12378</v>
-      </c>
-      <c r="C11" t="n">
-        <v>19390</v>
-      </c>
-      <c r="D11" t="n">
-        <v>4360</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1698</v>
-      </c>
-      <c r="F11" t="n">
-        <v>7077</v>
-      </c>
-      <c r="G11" t="n">
-        <v>805</v>
-      </c>
-      <c r="H11" t="n">
-        <v>8837</v>
-      </c>
-      <c r="I11" t="n">
-        <v>542</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1522</v>
-      </c>
+          <t>2019年</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>152770</v>
-      </c>
-      <c r="L11" t="n">
-        <v>340</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1100</v>
-      </c>
-      <c r="N11" t="n">
-        <v>798</v>
-      </c>
-      <c r="O11" t="n">
-        <v>2397</v>
-      </c>
-      <c r="P11" t="n">
-        <v>84</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>843</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2535</v>
-      </c>
-      <c r="S11" t="n">
-        <v>94</v>
-      </c>
-      <c r="T11" t="n">
-        <v>734</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1695</v>
-      </c>
-      <c r="V11" t="n">
-        <v>29</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1940</v>
-      </c>
-      <c r="X11" t="n">
-        <v>18445</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>1017</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>955</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>970</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>5220</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>846</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>23908</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>15364</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>711</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>2813</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>2911</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>139</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1825</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>2707</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>5700</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>95</v>
-      </c>
+        <v>253058</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>12679</v>
-      </c>
-      <c r="C12" t="n">
-        <v>21277</v>
-      </c>
-      <c r="D12" t="n">
-        <v>4463</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1792</v>
-      </c>
-      <c r="F12" t="n">
-        <v>6952</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1038</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9410</v>
-      </c>
-      <c r="I12" t="n">
-        <v>490</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1726</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>159637</v>
-      </c>
-      <c r="L12" t="n">
-        <v>710</v>
-      </c>
-      <c r="M12" t="n">
-        <v>957</v>
-      </c>
-      <c r="N12" t="n">
-        <v>1234</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2564</v>
-      </c>
-      <c r="P12" t="n">
-        <v>76</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>344</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2520</v>
-      </c>
-      <c r="S12" t="n">
-        <v>77</v>
-      </c>
-      <c r="T12" t="n">
-        <v>662</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1853</v>
-      </c>
-      <c r="V12" t="n">
-        <v>67</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1467</v>
-      </c>
-      <c r="X12" t="n">
-        <v>19529</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>633</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>823</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>4861</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>920</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>25850</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>16451</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>1186</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>3123</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>3026</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>139</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>1810</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1502</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>6363</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>58</v>
-      </c>
+        <v>280801</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -1380,7 +1232,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>176044</v>
+        <v>322480</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -1411,429 +1263,6 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="n">
-        <v>210730</v>
-      </c>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr"/>
-      <c r="W14" t="inlineStr"/>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>222508</v>
-      </c>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>225206</v>
-      </c>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>176447</v>
-      </c>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>195747</v>
-      </c>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
-      <c r="U18" t="inlineStr"/>
-      <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>222448</v>
-      </c>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
-      <c r="U19" t="inlineStr"/>
-      <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr"/>
-      <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>233296</v>
-      </c>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr"/>
-      <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>253058</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
-      <c r="U21" t="inlineStr"/>
-      <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>280801</v>
-      </c>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
